--- a/documents/03内部設計/ファイル構成一覧表.xlsx
+++ b/documents/03内部設計/ファイル構成一覧表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\講師\SEプラス\2020_Dojo\受領資料\2020_6月ダウンロード資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="562" documentId="8_{29E20D84-4378-4AFC-A385-52EC2DA6F11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9083892B-18C7-4FE5-910E-2ACB04F24075}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="8_{29E20D84-4378-4AFC-A385-52EC2DA6F11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{703AC2A9-82B2-4B57-984E-D2785025A8CF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="146">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -88,48 +88,51 @@
     <t>src/dao</t>
   </si>
   <si>
+    <t>PrfDAO.java</t>
+  </si>
+  <si>
+    <t>プロフィール管理DAO</t>
+  </si>
+  <si>
+    <t>servletからの指示</t>
+  </si>
+  <si>
+    <t>SQLからプロフ情報</t>
+  </si>
+  <si>
+    <t>塚谷</t>
+  </si>
+  <si>
+    <t>TeacherIdpwDAO.java</t>
+  </si>
+  <si>
+    <t>講師　ログインDAO</t>
+  </si>
+  <si>
+    <t>ID, PW</t>
+  </si>
+  <si>
+    <t>成否</t>
+  </si>
+  <si>
+    <t>土肥</t>
+  </si>
+  <si>
+    <t>StudentIdpwDAO.java</t>
+  </si>
+  <si>
+    <t>受講者　ログインDAO</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>src/model</t>
+  </si>
+  <si>
     <t>Prf.java</t>
   </si>
   <si>
-    <t>プロフィール管理DAO</t>
-  </si>
-  <si>
-    <t>servletからの指示</t>
-  </si>
-  <si>
-    <t>SQLからプロフ情報</t>
-  </si>
-  <si>
-    <t>塚谷</t>
-  </si>
-  <si>
-    <t>TeacherIdpw.java</t>
-  </si>
-  <si>
-    <t>講師　ログインDAO</t>
-  </si>
-  <si>
-    <t>ID, PW</t>
-  </si>
-  <si>
-    <t>成否</t>
-  </si>
-  <si>
-    <t>土肥</t>
-  </si>
-  <si>
-    <t>StudentIdpw.java</t>
-  </si>
-  <si>
-    <t>受講者　ログインDAO</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>src/model</t>
-  </si>
-  <si>
     <t>プロフィールjavabeans</t>
   </si>
   <si>
@@ -178,13 +181,7 @@
     <t>src/servlet</t>
   </si>
   <si>
-    <t>リザルト画面servlet</t>
-  </si>
-  <si>
-    <t>渡部</t>
-  </si>
-  <si>
-    <t>TeacherTop.java</t>
+    <t>TeacherTopServlet.java</t>
   </si>
   <si>
     <t>講師　トップ画面servlet</t>
@@ -199,13 +196,13 @@
     <t>加藤</t>
   </si>
   <si>
-    <t>TeacherLogin.java</t>
+    <t>TeacherLoginServlet.java</t>
   </si>
   <si>
     <t>講師　ログイン画面servlet</t>
   </si>
   <si>
-    <t>TeacherPrf.java</t>
+    <t>TeacherPrfServlet.java</t>
   </si>
   <si>
     <t>講師　受講生プロフィール表示画面servlet</t>
@@ -232,7 +229,7 @@
     <t>川原</t>
   </si>
   <si>
-    <t>TeacherList.java</t>
+    <t>TeacherListServlet.java</t>
   </si>
   <si>
     <t>講師　受講生リスト表示画面servlet</t>
@@ -241,7 +238,7 @@
     <t>プロフィール情報</t>
   </si>
   <si>
-    <t>TeacherNew.java</t>
+    <t>TeacherNewServlet.java</t>
   </si>
   <si>
     <t>講師　新規登録画面servlet</t>
@@ -256,7 +253,7 @@
     <t>土肥、松井</t>
   </si>
   <si>
-    <t>s_top.java</t>
+    <t>StudentTopServlet.java</t>
   </si>
   <si>
     <t>受講生　トップ画面servlet</t>
@@ -265,7 +262,7 @@
     <t>jspからボタン情報</t>
   </si>
   <si>
-    <t>s_prf.java</t>
+    <t>StudentPrfServlet.java</t>
   </si>
   <si>
     <t>受講生　プロフィール表示画面servlet</t>
@@ -277,19 +274,19 @@
     <t>川原、塚谷</t>
   </si>
   <si>
-    <t>s_prf_edit.java</t>
+    <t>StudentEditServlet.java</t>
   </si>
   <si>
     <t>受講生　プロフィール編集画面servlet</t>
   </si>
   <si>
-    <t>s_login.java</t>
+    <t>StudentLoginServlet.java</t>
   </si>
   <si>
     <t>受講生　ログイン画面servlet</t>
   </si>
   <si>
-    <t>s_new.java</t>
+    <t>StudentNewServlet.java</t>
   </si>
   <si>
     <t>受講生　新規登録画面servlet</t>
@@ -298,10 +295,13 @@
     <t>松井</t>
   </si>
   <si>
-    <t>main.java</t>
+    <t>MainServlet.java</t>
   </si>
   <si>
     <t>受講生・講師　選択画面servlet</t>
+  </si>
+  <si>
+    <t>渡部</t>
   </si>
   <si>
     <t>css</t>
@@ -742,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,9 +791,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -806,11 +803,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1137,7 +1134,7 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="48.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
@@ -1264,16 +1261,16 @@
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="9"/>
     </row>
@@ -1289,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -1314,16 +1311,16 @@
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="9"/>
     </row>
@@ -1339,16 +1336,16 @@
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>14</v>
@@ -1366,16 +1363,16 @@
         <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -1388,18 +1385,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -1407,26 +1408,26 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>22</v>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -1434,26 +1435,26 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>36</v>
+      <c r="F13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -1465,22 +1466,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -1492,22 +1493,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -1519,22 +1520,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -1546,22 +1547,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -1573,22 +1574,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -1600,22 +1601,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>55</v>
+      <c r="F19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -1627,22 +1628,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>18</v>
+      <c r="F20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -1650,26 +1651,26 @@
         <f>ROW()-2</f>
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>22</v>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>59</v>
+        <v>75</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -1678,25 +1679,21 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="9" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -1711,15 +1708,15 @@
         <v>78</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -1734,15 +1731,15 @@
         <v>78</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="19" t="s">
-        <v>84</v>
+      <c r="I24" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -1751,43 +1748,43 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2">
         <f>ROW()-2</f>
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>87</v>
+      <c r="C26" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="2">
@@ -1801,16 +1798,14 @@
         <v>92</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2">
@@ -1824,14 +1819,16 @@
         <v>92</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="2">
@@ -1845,15 +1842,15 @@
         <v>92</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="2"/>
       <c r="I29" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -1868,16 +1865,14 @@
         <v>92</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="2">
@@ -1891,10 +1886,10 @@
         <v>92</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="2"/>
@@ -1905,21 +1900,25 @@
         <f>ROW()-2</f>
         <v>30</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>92</v>
+      <c r="C32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="2">
@@ -1933,17 +1932,19 @@
         <v>106</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H33" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="I33" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -1952,25 +1953,25 @@
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>111</v>
+      <c r="E34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -1979,26 +1980,20 @@
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="E35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="2">
@@ -2011,15 +2006,19 @@
       <c r="D36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>117</v>
+      <c r="E36" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="2">
@@ -2033,17 +2032,19 @@
         <v>106</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="I37" s="9" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -2058,19 +2059,19 @@
         <v>106</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>109</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -2084,20 +2085,20 @@
       <c r="D39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>124</v>
+      <c r="E39" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -2112,19 +2113,17 @@
         <v>106</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H40" s="2"/>
       <c r="I40" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -2139,17 +2138,19 @@
         <v>106</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H41" s="12"/>
+      <c r="H41" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="I41" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -2163,20 +2164,20 @@
       <c r="D42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>133</v>
+      <c r="E42" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H42" s="21" t="s">
-        <v>126</v>
+      <c r="H42" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -2190,21 +2191,15 @@
       <c r="D43" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>135</v>
+      <c r="E43" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>19</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="2">
@@ -2217,15 +2212,21 @@
       <c r="D44" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>137</v>
+      <c r="E44" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="2">
@@ -2233,25 +2234,23 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>126</v>
+        <v>142</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -2260,42 +2259,30 @@
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>141</v>
+      <c r="E46" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G46" s="12"/>
-      <c r="H46" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="2">
         <f>ROW()-2</f>
         <v>45</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="2"/>
       <c r="G47" s="5"/>
       <c r="H47" s="2"/>
       <c r="I47" s="9"/>
@@ -2317,18 +2304,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2503,11 +2490,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/documents/03内部設計/ファイル構成一覧表.xlsx
+++ b/documents/03内部設計/ファイル構成一覧表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24202"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\講師\SEプラス\2020_Dojo\受領資料\2020_6月ダウンロード資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="8_{29E20D84-4378-4AFC-A385-52EC2DA6F11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{703AC2A9-82B2-4B57-984E-D2785025A8CF}"/>
+  <xr:revisionPtr revIDLastSave="592" documentId="8_{29E20D84-4378-4AFC-A385-52EC2DA6F11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17085870-6F52-4BFE-B109-35FC58CC5C19}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="146">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -130,6 +130,18 @@
     <t>src/model</t>
   </si>
   <si>
+    <t>TeachIdpw.java</t>
+  </si>
+  <si>
+    <t>講師　ログインjavabeans</t>
+  </si>
+  <si>
+    <t>DAOからID,PW</t>
+  </si>
+  <si>
+    <t>jspに保持情報</t>
+  </si>
+  <si>
     <t>Prf.java</t>
   </si>
   <si>
@@ -139,9 +151,6 @@
     <t>DAOからプロフ情報</t>
   </si>
   <si>
-    <t>jspに保持情報</t>
-  </si>
-  <si>
     <t>Result.java</t>
   </si>
   <si>
@@ -163,15 +172,6 @@
     <t>servletに保持情報</t>
   </si>
   <si>
-    <t>TeachIdpw.java</t>
-  </si>
-  <si>
-    <t>講師　ログインjavabeans</t>
-  </si>
-  <si>
-    <t>DAOからID,PW</t>
-  </si>
-  <si>
     <t>StuIdpw.java</t>
   </si>
   <si>
@@ -196,10 +196,31 @@
     <t>加藤</t>
   </si>
   <si>
-    <t>TeacherLoginServlet.java</t>
-  </si>
-  <si>
-    <t>講師　ログイン画面servlet</t>
+    <t>StudentTopServlet.java</t>
+  </si>
+  <si>
+    <t>受講生　トップ画面servlet</t>
+  </si>
+  <si>
+    <t>プロフィール情報</t>
+  </si>
+  <si>
+    <t>jspからボタン情報</t>
+  </si>
+  <si>
+    <t>StudentNewServlet.java</t>
+  </si>
+  <si>
+    <t>受講生　新規登録画面servlet</t>
+  </si>
+  <si>
+    <t>jspから登録項目</t>
+  </si>
+  <si>
+    <t>SQLに保持情報</t>
+  </si>
+  <si>
+    <t>松井</t>
   </si>
   <si>
     <t>TeacherPrfServlet.java</t>
@@ -229,13 +250,49 @@
     <t>川原</t>
   </si>
   <si>
+    <t>StudentPrfServlet.java</t>
+  </si>
+  <si>
+    <t>受講生　プロフィール表示画面servlet</t>
+  </si>
+  <si>
+    <t>jspから受講者ID</t>
+  </si>
+  <si>
+    <t>川原、塚谷</t>
+  </si>
+  <si>
+    <t>StudentEditServlet.java</t>
+  </si>
+  <si>
+    <t>受講生　プロフィール編集画面servlet</t>
+  </si>
+  <si>
     <t>TeacherListServlet.java</t>
   </si>
   <si>
     <t>講師　受講生リスト表示画面servlet</t>
   </si>
   <si>
-    <t>プロフィール情報</t>
+    <t>MainServlet.java</t>
+  </si>
+  <si>
+    <t>受講生・講師　選択画面servlet</t>
+  </si>
+  <si>
+    <t>渡部</t>
+  </si>
+  <si>
+    <t>TeacherLoginServlet.java</t>
+  </si>
+  <si>
+    <t>講師　ログイン画面servlet</t>
+  </si>
+  <si>
+    <t>StudentLoginServlet.java</t>
+  </si>
+  <si>
+    <t>受講生　ログイン画面servlet</t>
   </si>
   <si>
     <t>TeacherNewServlet.java</t>
@@ -244,64 +301,7 @@
     <t>講師　新規登録画面servlet</t>
   </si>
   <si>
-    <t>jspから登録項目</t>
-  </si>
-  <si>
-    <t>SQLに保持情報</t>
-  </si>
-  <si>
     <t>土肥、松井</t>
-  </si>
-  <si>
-    <t>StudentTopServlet.java</t>
-  </si>
-  <si>
-    <t>受講生　トップ画面servlet</t>
-  </si>
-  <si>
-    <t>jspからボタン情報</t>
-  </si>
-  <si>
-    <t>StudentPrfServlet.java</t>
-  </si>
-  <si>
-    <t>受講生　プロフィール表示画面servlet</t>
-  </si>
-  <si>
-    <t>jspから受講者ID</t>
-  </si>
-  <si>
-    <t>川原、塚谷</t>
-  </si>
-  <si>
-    <t>StudentEditServlet.java</t>
-  </si>
-  <si>
-    <t>受講生　プロフィール編集画面servlet</t>
-  </si>
-  <si>
-    <t>StudentLoginServlet.java</t>
-  </si>
-  <si>
-    <t>受講生　ログイン画面servlet</t>
-  </si>
-  <si>
-    <t>StudentNewServlet.java</t>
-  </si>
-  <si>
-    <t>受講生　新規登録画面servlet</t>
-  </si>
-  <si>
-    <t>松井</t>
-  </si>
-  <si>
-    <t>MainServlet.java</t>
-  </si>
-  <si>
-    <t>受講生・講師　選択画面servlet</t>
-  </si>
-  <si>
-    <t>渡部</t>
   </si>
   <si>
     <t>css</t>
@@ -360,6 +360,18 @@
   </si>
   <si>
     <t>グラフ作成jQuery</t>
+  </si>
+  <si>
+    <t>fade.js</t>
+  </si>
+  <si>
+    <t>フェードページ切り替えjQuery</t>
+  </si>
+  <si>
+    <t>scroll.js</t>
+  </si>
+  <si>
+    <t>トップに戻るjQuery</t>
   </si>
   <si>
     <t>common.js</t>
@@ -376,18 +388,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>scroll.js</t>
-  </si>
-  <si>
-    <t>トップに戻るjQuery</t>
-  </si>
-  <si>
-    <t>fade.js</t>
-  </si>
-  <si>
-    <t>フェードページ切り替えjQuery</t>
-  </si>
-  <si>
     <t>entry.js</t>
   </si>
   <si>
@@ -408,28 +408,91 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>t_top.jsp</t>
+  </si>
+  <si>
+    <t>講師　トップ画面jsp</t>
+  </si>
+  <si>
+    <t>クラス情報</t>
+  </si>
+  <si>
+    <t>s_top.jsp</t>
+  </si>
+  <si>
+    <t>受講生　トップ画面jsp</t>
+  </si>
+  <si>
+    <t>表示するボタン情報</t>
+  </si>
+  <si>
+    <t>押されたボタン情報</t>
+  </si>
+  <si>
+    <t>t_new.jsp</t>
+  </si>
+  <si>
+    <t>講師　新規登録画面jsp</t>
+  </si>
+  <si>
+    <t>javabeans保持情報</t>
+  </si>
+  <si>
+    <t>登録項目</t>
+  </si>
+  <si>
+    <t>s_new.jsp</t>
+  </si>
+  <si>
+    <t>受講生　新規登録画面jsp</t>
+  </si>
+  <si>
+    <t>t_prf.jsp</t>
+  </si>
+  <si>
+    <t>講師　受講生プロフィール表示画面jsp</t>
+  </si>
+  <si>
+    <t>s_prf.jsp</t>
+  </si>
+  <si>
+    <t>受講生　プロフィール表示画面jsp</t>
+  </si>
+  <si>
+    <t>s_prf_edit.jsp</t>
+  </si>
+  <si>
+    <t>受講生　プロフィール編集画面jsp</t>
+  </si>
+  <si>
+    <t>t_list.jsp</t>
+  </si>
+  <si>
+    <t>講師　受講生リスト表示画面jsp</t>
+  </si>
+  <si>
+    <t>受講生のリスト情報</t>
+  </si>
+  <si>
     <t>result.jsp</t>
   </si>
   <si>
     <t>リザルト画面jsp</t>
-  </si>
-  <si>
-    <t>javabeans保持情報</t>
-  </si>
-  <si>
-    <t>t_top.jsp</t>
-  </si>
-  <si>
-    <t>講師　トップ画面jsp</t>
-  </si>
-  <si>
-    <t>クラス情報</t>
   </si>
   <si>
     <t>jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>main.jsp</t>
+  </si>
+  <si>
+    <t>受講生・講師　選択画面jsp</t>
+  </si>
+  <si>
+    <t>対応するservlet</t>
+  </si>
+  <si>
     <t>t_login.jsp</t>
   </si>
   <si>
@@ -439,85 +502,22 @@
     <t>ID,PW情報</t>
   </si>
   <si>
+    <t>s_login.jsp</t>
+  </si>
+  <si>
+    <t>受講生　ログイン画面jsp</t>
+  </si>
+  <si>
     <t>t_header.jsp</t>
   </si>
   <si>
     <t>講師　共通ヘッダーjsp</t>
   </si>
   <si>
-    <t>t_prf.jsp</t>
-  </si>
-  <si>
-    <t>講師　受講生プロフィール表示画面jsp</t>
-  </si>
-  <si>
-    <t>t_list.jsp</t>
-  </si>
-  <si>
-    <t>講師　受講生リスト表示画面jsp</t>
-  </si>
-  <si>
-    <t>受講生のリスト情報</t>
-  </si>
-  <si>
-    <t>t_new.jsp</t>
-  </si>
-  <si>
-    <t>講師　新規登録画面jsp</t>
-  </si>
-  <si>
-    <t>登録項目</t>
-  </si>
-  <si>
-    <t>s_top.jsp</t>
-  </si>
-  <si>
-    <t>受講生　トップ画面jsp</t>
-  </si>
-  <si>
-    <t>表示するボタン情報</t>
-  </si>
-  <si>
-    <t>押されたボタン情報</t>
-  </si>
-  <si>
-    <t>s_prf.jsp</t>
-  </si>
-  <si>
-    <t>受講生　プロフィール表示画面jsp</t>
-  </si>
-  <si>
-    <t>s_prf_edit.jsp</t>
-  </si>
-  <si>
-    <t>受講生　プロフィール編集画面jsp</t>
-  </si>
-  <si>
-    <t>s_login.jsp</t>
-  </si>
-  <si>
-    <t>受講生　ログイン画面jsp</t>
-  </si>
-  <si>
     <t>s_header.jsp</t>
   </si>
   <si>
     <t>受講生　共通ヘッダーjsp</t>
-  </si>
-  <si>
-    <t>s_new.jsp</t>
-  </si>
-  <si>
-    <t>受講生　新規登録画面jsp</t>
-  </si>
-  <si>
-    <t>main.jsp</t>
-  </si>
-  <si>
-    <t>受講生・講師　選択画面jsp</t>
-  </si>
-  <si>
-    <t>対応するservlet</t>
   </si>
   <si>
     <t>footer.jsp</t>
@@ -742,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,11 +803,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1272,7 +1275,9 @@
       <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="2">
@@ -1320,9 +1325,11 @@
         <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2">
@@ -1336,19 +1343,19 @@
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="I9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -1369,7 +1376,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>27</v>
@@ -1408,8 +1415,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>40</v>
@@ -1420,14 +1427,14 @@
       <c r="F12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>18</v>
+      <c r="G12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -1441,20 +1448,20 @@
       <c r="D13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>49</v>
+      <c r="E13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -1468,20 +1475,20 @@
       <c r="D14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>52</v>
+      <c r="E14" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -1496,19 +1503,19 @@
         <v>40</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -1522,20 +1529,20 @@
       <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>60</v>
+      <c r="E16" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -1550,19 +1557,19 @@
         <v>40</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -1570,26 +1577,26 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>22</v>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="10" t="s">
         <v>67</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>68</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -1597,20 +1604,20 @@
         <f>ROW()-2</f>
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>22</v>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="F19" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="G19" s="17" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>18</v>
@@ -1631,19 +1638,19 @@
         <v>40</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="8" t="s">
         <v>72</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G20" s="17" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -1651,8 +1658,8 @@
         <f>ROW()-2</f>
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
+      <c r="C21" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>40</v>
@@ -1660,14 +1667,14 @@
       <c r="E21" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>44</v>
+      <c r="G21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>76</v>
@@ -1739,7 +1746,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="3"/>
       <c r="I24" s="18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -1805,7 +1812,9 @@
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2">
@@ -1827,7 +1836,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="2"/>
       <c r="I28" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -1849,9 +1858,7 @@
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="2">
@@ -1912,12 +1919,14 @@
       <c r="F32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="2"/>
       <c r="I32" s="9" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -1938,10 +1947,10 @@
         <v>111</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>45</v>
@@ -1953,7 +1962,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>106</v>
@@ -1961,17 +1970,17 @@
       <c r="E34" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="2" t="s">
         <v>115</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="H34" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="I34" s="9" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -1985,15 +1994,21 @@
       <c r="D35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="2">
@@ -2007,17 +2022,17 @@
         <v>106</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -2031,20 +2046,18 @@
       <c r="D37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>121</v>
+      <c r="E37" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>123</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="9" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -2058,20 +2071,20 @@
       <c r="D38" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -2085,20 +2098,20 @@
       <c r="D39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="I39" s="9" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -2113,17 +2126,17 @@
         <v>106</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>109</v>
+        <v>130</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="9" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -2132,25 +2145,23 @@
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="5"/>
+      <c r="H41" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>126</v>
-      </c>
       <c r="I41" s="9" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -2159,7 +2170,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>106</v>
@@ -2167,14 +2178,14 @@
       <c r="E42" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="11" t="s">
         <v>136</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>19</v>
@@ -2191,15 +2202,21 @@
       <c r="D43" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="9"/>
+      <c r="I43" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="2">
@@ -2212,21 +2229,15 @@
       <c r="D44" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>139</v>
+      <c r="E44" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>73</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="2">
@@ -2234,24 +2245,20 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>141</v>
+      <c r="E45" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="2">
@@ -2304,21 +2311,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2489,14 +2481,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}"/>
 </file>
--- a/documents/03内部設計/ファイル構成一覧表.xlsx
+++ b/documents/03内部設計/ファイル構成一覧表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24206"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\講師\SEプラス\2020_Dojo\受領資料\2020_6月ダウンロード資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="592" documentId="8_{29E20D84-4378-4AFC-A385-52EC2DA6F11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17085870-6F52-4BFE-B109-35FC58CC5C19}"/>
+  <xr:revisionPtr revIDLastSave="613" documentId="8_{29E20D84-4378-4AFC-A385-52EC2DA6F11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B524777C-4934-4BCE-913E-837A4A7B9361}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="150">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t>土肥、松井</t>
+  </si>
+  <si>
+    <t>TeacherLogoutServlet.java</t>
+  </si>
+  <si>
+    <t>講師　ログアウト画面servlet</t>
+  </si>
+  <si>
+    <t>StudentLogoutServlet.java</t>
+  </si>
+  <si>
+    <t>受講生　ログアウト画面servlet</t>
   </si>
   <si>
     <t>css</t>
@@ -577,7 +589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -736,13 +748,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,6 +833,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:I47"/>
+  <dimension ref="B2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1670,7 +1696,7 @@
       <c r="F21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="23" t="s">
         <v>52</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -1682,48 +1708,48 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="2">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B22:B23" si="1">ROW()-2</f>
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="F22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="9" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="2">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="C23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="9" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -1732,21 +1758,21 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -1755,42 +1781,44 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="2">
         <f>ROW()-2</f>
         <v>24</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="9" t="s">
-        <v>45</v>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -1798,23 +1826,21 @@
         <f>ROW()-2</f>
         <v>25</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>96</v>
+      <c r="E27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="2">
@@ -1822,21 +1848,21 @@
         <v>26</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="2"/>
       <c r="I28" s="9" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -1845,10 +1871,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>99</v>
@@ -1858,7 +1884,9 @@
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="2">
@@ -1866,10 +1894,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>101</v>
@@ -1879,7 +1907,9 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="2">
@@ -1887,10 +1917,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>103</v>
@@ -1907,54 +1937,42 @@
         <f>ROW()-2</f>
         <v>30</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="2">
         <f>ROW()-2</f>
         <v>31</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="C33" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="2">
@@ -1962,25 +1980,25 @@
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>117</v>
+        <v>43</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -1989,25 +2007,25 @@
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -2015,24 +2033,26 @@
         <f>ROW()-2</f>
         <v>34</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>106</v>
+      <c r="C36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="H36" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="5"/>
       <c r="I36" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -2040,24 +2060,26 @@
         <f>ROW()-2</f>
         <v>35</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="C37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>123</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="I37" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -2066,23 +2088,21 @@
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>124</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>117</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H38" s="5"/>
       <c r="I38" s="9" t="s">
         <v>58</v>
       </c>
@@ -2093,25 +2113,23 @@
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>127</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>128</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H39" s="2"/>
       <c r="I39" s="9" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -2120,23 +2138,25 @@
         <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="2"/>
+      <c r="G40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="I40" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -2145,23 +2165,25 @@
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="G41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="22" t="s">
-        <v>134</v>
-      </c>
       <c r="I41" s="9" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -2170,25 +2192,23 @@
         <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" s="2"/>
       <c r="I42" s="9" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -2197,25 +2217,23 @@
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E43" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="I43" s="9" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -2224,20 +2242,26 @@
         <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="2">
@@ -2245,20 +2269,26 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="9"/>
+      <c r="G45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="2">
@@ -2266,19 +2296,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="2"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="12"/>
       <c r="I46" s="9"/>
     </row>
     <row r="47" spans="2:9">
@@ -2286,13 +2316,55 @@
         <f>ROW()-2</f>
         <v>45</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="G47" s="5"/>
       <c r="H47" s="2"/>
       <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="2">
+        <f>ROW()-2</f>
+        <v>46</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="2">
+        <f>ROW()-2</f>
+        <v>47</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:I18" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
@@ -2302,7 +2374,7 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I7 I21:I47 I9:I14 I17:I18" xr:uid="{9E5ECF72-271B-4EEA-AB63-33DDCFA305A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I7 I9:I14 I17:I18 I21:I49" xr:uid="{9E5ECF72-271B-4EEA-AB63-33DDCFA305A3}">
       <formula1>"加藤,塚谷,土肥,川原,松井,渡部"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2311,6 +2383,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2481,23 +2568,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2505,5 +2577,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}"/>
 </file>